--- a/AppTec/practice/TeamC/テスト実施/試験エビデンス/試験エビデンス10(0623).xlsx
+++ b/AppTec/practice/TeamC/テスト実施/試験エビデンス/試験エビデンス10(0623).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systemi\Desktop\TeamC\試験エビデンス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systsemi\Desktop\TEAMC\試験エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="試験内容(10-1)" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>投稿日絞り込み</t>
     <phoneticPr fontId="1"/>
@@ -219,6 +219,16 @@
     <t>「e」と入力</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿日絞り込み「一年」を選択した後</t>
+    <rPh sb="8" eb="10">
+      <t>イチネン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1112,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1399,6 +1409,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="A1:I1"/>
@@ -1409,29 +1439,9 @@
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B38:I38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,7 +1454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1575,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="59" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -1706,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="59" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1794,7 +1804,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -1837,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="59" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2124,15 +2134,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B31:D31"/>
@@ -2148,15 +2158,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2169,7 +2179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="59" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="59" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2456,15 +2466,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B31:D31"/>
@@ -2480,15 +2490,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2501,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="59" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="59" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2788,15 +2798,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B31:D31"/>
@@ -2812,15 +2822,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
